--- a/database/sidis/expdata/9077.xlsx
+++ b/database/sidis/expdata/9077.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\Summer Research\sidisdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4888F1D3-B323-433E-B6B7-49DA4ADA8292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2638E0FD-10D3-5B4A-AF23-4D260380A917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="1440" windowWidth="13170" windowHeight="11520" xr2:uid="{5654C7FA-B0AB-415A-8D3F-3193E78804D9}"/>
+    <workbookView xWindow="2200" yWindow="1440" windowWidth="13180" windowHeight="11520" xr2:uid="{5654C7FA-B0AB-415A-8D3F-3193E78804D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Q2</t>
   </si>
@@ -91,6 +82,9 @@
   </si>
   <si>
     <t>HERMES</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
@@ -167,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -178,6 +172,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,15 +490,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB95423-8F19-4ED1-941F-56ACFDA7F3B4}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="P2" sqref="P2:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +544,11 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2.56</v>
       </c>
@@ -594,8 +594,11 @@
       <c r="O2" s="3">
         <v>0.17</v>
       </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.56</v>
       </c>
@@ -641,8 +644,11 @@
       <c r="O3" s="3">
         <v>0.25</v>
       </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2.52</v>
       </c>
@@ -688,8 +694,11 @@
       <c r="O4" s="3">
         <v>0.31</v>
       </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2.46</v>
       </c>
@@ -735,8 +744,11 @@
       <c r="O5" s="3">
         <v>0.38</v>
       </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2.39</v>
       </c>
@@ -782,8 +794,11 @@
       <c r="O6" s="3">
         <v>0.52</v>
       </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2.34</v>
       </c>
@@ -829,8 +844,11 @@
       <c r="O7" s="3">
         <v>0.69</v>
       </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -875,6 +893,9 @@
       </c>
       <c r="O8" s="3">
         <v>2</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
